--- a/00-lapkeu-log.xlsx
+++ b/00-lapkeu-log.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\lapkeu\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2E148A96-C55B-4E4F-A877-29984ADC9E8E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="7770" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="7770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="case" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t>case</t>
   </si>
@@ -88,9 +89,6 @@
   </si>
   <si>
     <t>Penerimaan</t>
-  </si>
-  <si>
-    <t>Laporan - Penerimaan</t>
   </si>
   <si>
     <t>create export manual to excel</t>
@@ -101,11 +99,20 @@
 berikutnya :
 isi content excel dengan pengambilan data dari database</t>
   </si>
+  <si>
+    <t>Laporan - Keuangan</t>
+  </si>
+  <si>
+    <t>Laporan - Pengeluaran</t>
+  </si>
+  <si>
+    <t>grouping per Jenis-Pengeluaran &amp; Sub-Jenis-Pengeluaran</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
@@ -479,8 +486,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
@@ -495,7 +502,7 @@
     <col min="2" max="2" width="3.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="100.7109375" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -630,7 +637,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>7</v>
       </c>
@@ -641,10 +648,27 @@
         <v>0.80763888888888891</v>
       </c>
       <c r="E10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>22</v>
+    </row>
+    <row r="11" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3">
+        <v>43322</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.89444444444444438</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -658,14 +682,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -873,7 +897,21 @@
         <v>18</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>8</v>
+      </c>
+      <c r="C16" s="3">
+        <v>43322</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/00-lapkeu-log.xlsx
+++ b/00-lapkeu-log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\lapkeu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2E148A96-C55B-4E4F-A877-29984ADC9E8E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{95266583-EFBE-4102-9576-F3DF88E85F1F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="7770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>case</t>
   </si>
@@ -107,6 +107,13 @@
   </si>
   <si>
     <t>grouping per Jenis-Pengeluaran &amp; Sub-Jenis-Pengeluaran</t>
+  </si>
+  <si>
+    <t>cont'd</t>
+  </si>
+  <si>
+    <t>dibuat tabel terpisah antara penerimaan dan pengeluaran
+seperti pada contoh excel draft</t>
   </si>
 </sst>
 </file>
@@ -160,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -206,6 +213,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -493,7 +509,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -655,19 +671,19 @@
       </c>
     </row>
     <row r="11" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
+      <c r="B11" s="10">
         <v>8</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="11">
         <v>43322</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="12">
         <v>0.89444444444444438</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -683,13 +699,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:F16"/>
+  <dimension ref="B2:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -698,7 +714,7 @@
     <col min="2" max="2" width="8.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="11" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="100.7109375" style="9" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -912,6 +928,37 @@
       </c>
       <c r="E16" s="2" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="16">
+        <v>8</v>
+      </c>
+      <c r="C17" s="17">
+        <v>43323</v>
+      </c>
+      <c r="D17" s="18">
+        <v>0.43958333333333338</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>7</v>
+      </c>
+      <c r="C18" s="3">
+        <v>43323</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/00-lapkeu-log.xlsx
+++ b/00-lapkeu-log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\lapkeu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{95266583-EFBE-4102-9576-F3DF88E85F1F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2B0AB765-E900-49A5-B13E-A954DEC2420A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="7770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="7770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="case" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
   <si>
     <t>case</t>
   </si>
@@ -114,6 +114,9 @@
   <si>
     <t>dibuat tabel terpisah antara penerimaan dan pengeluaran
 seperti pada contoh excel draft</t>
+  </si>
+  <si>
+    <t>ditambahi range tanggal pelaporan</t>
   </si>
 </sst>
 </file>
@@ -205,6 +208,15 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -213,15 +225,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -503,13 +506,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F11"/>
+  <dimension ref="B2:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -524,15 +527,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="14"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="2:6" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
@@ -685,6 +688,23 @@
       </c>
       <c r="F11" s="10" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3">
+        <v>43323</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -701,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
@@ -720,20 +740,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15" t="s">
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:6" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="14"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
@@ -743,7 +763,7 @@
       <c r="E3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="15"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
@@ -931,16 +951,16 @@
       </c>
     </row>
     <row r="17" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="16">
+      <c r="B17" s="13">
         <v>8</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="14">
         <v>43323</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="15">
         <v>0.43958333333333338</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="13" t="s">
         <v>17</v>
       </c>
     </row>

--- a/00-lapkeu-log.xlsx
+++ b/00-lapkeu-log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\lapkeu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2B0AB765-E900-49A5-B13E-A954DEC2420A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{296CFA37-27B7-4C76-949C-368CC5A4C2C2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="7770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="7770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="case" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
   <si>
     <t>case</t>
   </si>
@@ -117,6 +117,13 @@
   </si>
   <si>
     <t>ditambahi range tanggal pelaporan</t>
+  </si>
+  <si>
+    <t>Tutup Buku</t>
+  </si>
+  <si>
+    <t>karena perlu ada periode buku, maka perlu adanya proses tutup buku,
+perlu ada tabel untuk menyimpan data history</t>
   </si>
 </sst>
 </file>
@@ -506,9 +513,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F12"/>
+  <dimension ref="B2:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -518,7 +525,7 @@
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="3.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
@@ -705,6 +712,23 @@
       </c>
       <c r="F12" s="2" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3">
+        <v>43323</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.87777777777777777</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -719,13 +743,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:F18"/>
+  <dimension ref="B2:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -981,6 +1005,20 @@
         <v>27</v>
       </c>
     </row>
+    <row r="19" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>9</v>
+      </c>
+      <c r="C19" s="3">
+        <v>43323</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.88611111111111107</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:B3"/>

--- a/00-lapkeu-log.xlsx
+++ b/00-lapkeu-log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\lapkeu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{296CFA37-27B7-4C76-949C-368CC5A4C2C2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E5B253CF-8B73-4B9F-B788-A498F2A1E1B9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="7770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
   <si>
     <t>case</t>
   </si>
@@ -124,6 +124,10 @@
   <si>
     <t>karena perlu ada periode buku, maka perlu adanya proses tutup buku,
 perlu ada tabel untuk menyimpan data history</t>
+  </si>
+  <si>
+    <t>sampai dengan :
+query nya ditambahkan dengan start dan end</t>
   </si>
 </sst>
 </file>
@@ -743,13 +747,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:F19"/>
+  <dimension ref="B2:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1019,6 +1023,23 @@
         <v>16</v>
       </c>
     </row>
+    <row r="20" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <v>9</v>
+      </c>
+      <c r="C20" s="3">
+        <v>43323</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:B3"/>
